--- a/biology/Médecine/Anévrisme_intracrânien/Anévrisme_intracrânien.xlsx
+++ b/biology/Médecine/Anévrisme_intracrânien/Anévrisme_intracrânien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_intracr%C3%A2nien</t>
+          <t>Anévrisme_intracrânien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anévrisme intracrânien est une déformation de la membrane des artères du cerveau. Cette déformation prend le plus souvent la forme d'un sac, appelé sac anévrismal[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anévrisme intracrânien est une déformation de la membrane des artères du cerveau. Cette déformation prend le plus souvent la forme d'un sac, appelé sac anévrismal.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_intracr%C3%A2nien</t>
+          <t>Anévrisme_intracrânien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine de cette lésion est très variée. Le classement le plus couramment reconnu est étiologique :
 congénital, dégénératif ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_intracr%C3%A2nien</t>
+          <t>Anévrisme_intracrânien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Signes précurseurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon la société française de neuroradiologie, 5 % de la population aurait un anévrisme intra-cérébral. Lorsqu'il survient sans crier gare, il n'y a malheureusement souvent plus grand-chose à faire pour éviter la mort subite (la moitié des cas), cependant des signes précurseurs peuvent attirer l'attention dans les heures et même les jours qui précèdent l'accident, parmi ceux-ci :
 des maux de tête inhabituels ;
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_intracr%C3%A2nien</t>
+          <t>Anévrisme_intracrânien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les anévrismes cérébraux rompus relèvent de la neurochirurgie et de la neuroradiologie interventionnelle : après l'artériographie cérébrale, le neuroradiologue et le neurochirurgien élaborent le traitement qui doit être entrepris en urgence :
 soit l'intervention chirurgicale : trépanation et mise en place d'un clip au niveau du collet de l'anévrisme ;
